--- a/data/第二次試驗/【測試資料】_60題.xlsx
+++ b/data/第二次試驗/【測試資料】_60題.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crazy\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\桌面\RAG_Search_Weights\data\第二次試驗\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB8CDFE-8DC3-46F6-A8F9-3B4D7A2644DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712F08CD-C7DF-41A7-B18F-A3388B95CBB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>問題</t>
   </si>
@@ -151,276 +151,6 @@
     <t>"title": "110-2 國立政治大學 陳信木 人口學",
     "description": "本課程是人口學（demography）導論﹐目的在於介紹人口學的基礎概念、測量、研究方法、以及基本人口學知識。將從所謂的社會人口學（social demography）角度出發﹐探討動態人口過程（population dynamics）——亦即出生、死亡、遷移，以及人口組成（population composition）——性別、年齡、和其他人口特徵。",
     "evaluation": "小班制很歡樂, 人口學很有趣, 期末報告大爆炸"</t>
-  </si>
-  <si>
-    <t>分組 資訊 視覺化 李怡志</t>
-  </si>
-  <si>
-    <t>"title": "111-2 國立政治大學 李怡志 資訊圖表與視覺化",
-    "description": "這門課程中，將會學會如何以易得或者免費的軟體，蒐集、清洗、分析與呈現數據，並繪製出讓讀者有數據感（Sense of Data）的視覺資訊與圖表，完成你的數據故事，並將這個能力帶入其他課程與實務工作中。 課程包含了三個模組，分別是 - 基本數據分析與資訊視覺化 - 數據敘事 - 數據新聞與簡報 （來源：https://newdoc.nccu.edu.tw/teaschm/1112/schmPrv.jsp-yy=111&amp;smt=2&amp;num=405908&amp;gop=00&amp;s=1.html）",
-    "evaluation": "有成就感, 分組合作, 做出厲害的作品"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">電腦稽核 電腦審計 上機 109 </t>
-  </si>
-  <si>
-    <t>"title": "109-1 國立政治大學 于紀隆 電腦審計",
-    "description": "在高度資訊化營運環境中，大數據應用於分析或查核工作已為必然趨勢，瞭解電腦稽核技術應用的基礎知識，應用軟體來進行資料比對與確認，提昇查核品質與效率，已成為財會人競爭力的必備條件。 本課程主要是透過基本理論與上機操作，學習ACL電腦輔助稽核軟體的基礎操作技巧，帶領您思考如何應用電腦稽核軟體來解決資訊環境下的資料分析與查核問題，期許提昇個人電腦稽核能力，促進未來職涯發展。",
-    "evaluation": "很無聊, 簡單容易, 上機操作"</t>
-  </si>
-  <si>
-    <t>保險法 111 陳俊元</t>
-  </si>
-  <si>
-    <t>"title": "111-2 國立政治大學 陳俊元 保險法",
-    "description": "這堂課的上課內容就是在教授我國保險法制度，如保險契約的原理、保險制度、不同險種的特色等。以說明台灣保險法體系、重要條文與相關解釋為主，輔以比較法的介紹，並適當介紹保險法與民法、消費者保護法、金融消費者保護法、強制汽車責任保險法等相關法規。",
-    "evaluation": "老師講話中氣有點不足, 保險法內容好多, 教室很讚"</t>
-  </si>
-  <si>
-    <t>性別教育 角色扮演 社會文化</t>
-  </si>
-  <si>
-    <t>"title": "112-1 國立政治大學 周祝瑛 性別教育你我他",
-    "description": "這是一門老師和同學一起共同來在說故事的課程。 透過每周一個故事的閱讀，進行角色扮演與劇情涉入，並進一步挖掘故事中的性別議題與意識。上課中需要同學帶平板電腦或手機，理由很簡單，你會需要用到這些工具，藉著它們的幫忙，完成課堂上的指定討論與角色扮演。 這門課試著用故事的情節，透過師生互動過程的討論與思辨，檢視目前社會上性別平等教育的相關議題，包括：兩性生、心理發展，性別角色社會化歷程，家庭學校職場、與社會文化中的性別關係及其所衍生的問題等。希望透過教學過程喚起同學的性別意識，學習與同性及異性的相處，進而建立性別平權的觀念與規範。本課程的教學目標包括培養學生檢視個人性別經驗的敏感度與關係、加強學生剖析社會性別議題的能力、透視教育體制中性別不平等的議題、建構多元的性別意識，尊重性別的平等觀念。另外，本學期將持續舉辦「模擬約會」活動，希望拓展同學「實體」的交友圈，提升性別平等意識與人際關係。",
-    "evaluation": "模擬約會, 教授偏傳統古板, 閱讀文章分組討論"</t>
-  </si>
-  <si>
-    <t>排球中級 嚴雅婷 舉球</t>
-  </si>
-  <si>
-    <t>"title": "111-1 國立政治大學 嚴雅婷 體育[女]—排球中級",
-    "description": "上課非常的扎實，除了基本的舉球、托球、殺球等姿勢外，也會教各種排球快攻招式、攻擊步，還會有不定期的小組循環比賽，如果喜歡排球，而且遇到不錯的隊友應該會上的很開心",
-    "evaluation": "扎實, 老師很讚, 吃隊友"</t>
-  </si>
-  <si>
-    <t>變異數分析 ANOVA 英文授課 調分</t>
-  </si>
-  <si>
-    <t>"title": "110-2 國立政治大學 張育瑋 統計學（二）",
-    "description": "老師會利用一週的課程先複習上學期的假設檢定 (Hypothesis Tests)，因為假設檢定的觀念會貫穿下學期很多章節的內容。 其餘課程內容涵蓋：推論 2 個平均數或母體參數 (Inference about means and proportions with 2 populations)、推論 1 組母體變異數 (Inferences about population variances)、比較多種比例、適合性檢定與適宜性檢定 (Comparing multiple proportions, Test of independence and Goodness of fit)、實驗設計與變異數分析 (Experimental Design and ANOVA)、簡單線性迴歸 (Simple linear regression)、多重迴歸 (Multiple regression)、迴歸分析 - 模型建立 (Regression analysis: Model building)。",
-    "evaluation": "英文授課, 會調分, 鼓勵學生"</t>
-  </si>
-  <si>
-    <t>資料科學 人工智慧 R programming language</t>
-  </si>
-  <si>
-    <t>"title": "110-1 國立政治大學 張家銘 資料科學",
-    "description": "This course aims to introduce data science from a pragmatic, practice-oriented viewpoint. Students will learn concepts, R programming language, and tools they need to deal with various facets of data science practice, including data integration, exploratory data analysis, predictive modeling, evaluation, and effective visual communication. By the end of the course, they will be able to apply data science techniques on their own research topics. https://newdoc.nccu.edu.tw/teaschm/1101/schmPrv.jsp-yy=110&amp;smt=1&amp;num=703837&amp;gop=00&amp;s=1.html",
-    "evaluation": "人工智慧, 機器學習, 資料科學"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">普通心理學 111 水課 </t>
-  </si>
-  <si>
-    <t>"title": "111-2 國立政治大學 張裕隆 普通心理學",
-    "description": "學習、思考、與應用心理學的理論與方法，以有助於個人現代生活的適應、人生成長、與迎接未來的競爭與挑戰，亦即透過「自我探索」與「標竿學習」進而提昇「個人競爭力」。來聽幹話",
-    "evaluation": "聽幹話, 水課, 不用點名"</t>
-  </si>
-  <si>
-    <t>初級日語 五十音 早八</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "title": "111-1 國立政治大學 葉秉杰 初級日語",
-    "description": "從五十音開始教，修完大一大約有JLPT N4程度。用日文原文教材搭配老師講解，老師本身是語言學專業所以教得很仔細，就算原本就學過日文的同學去修課也可以學到新東西。上課前老師喜歡講解日本各地的文化習俗和旅遊經驗，算是額外收穫。",
-    "evaluation": "早八, 睡魔, 日本地理課"</t>
-  </si>
-  <si>
-    <t>林超琦 臺灣政治 111 申論 白色恐怖</t>
-  </si>
-  <si>
-    <t>"title": "111-1 國立政治大學 林超琦 臺灣政治",
-    "description": "這堂課很類似高中的公民課、歷史課，主要會介紹台灣的選舉制度、白色恐怖時期、憲政體制、立法院職權等，正課兩小時後會接一小時的助教課，助教會列出幾個問題(跟前面正課有關)，讓小組討論，並上台跟其他人分享論點",
-    "evaluation": "高中歷史, 高中公民, 期中考是申論"</t>
-  </si>
-  <si>
-    <t>台灣文學 文本賞析 地景</t>
-  </si>
-  <si>
-    <t>"title": "111-2 國立政治大學 羅詩雲 走讀台灣文學地景",
-    "description": "課前閱讀地方文學的文本，上課像高中國文課一樣有文本賞析與討論，文本賞析是老師用簡報介紹作者、文章解析等，討論則是由當週文本延伸出來的開放性問題，小組完成討論即可下課（但通常都是延遲到下課時間不是提早）。有個人及小組的文學創作作業，除了閱讀以外的練習寫作機會。",
-    "evaluation": "傍晚上課, 高中國文, 認識臺灣"</t>
-  </si>
-  <si>
-    <t>數位遊戲 微學分 給分甜</t>
-  </si>
-  <si>
-    <t>"title": "111-1 國立政治大學 林日璇 數位遊戲與傳播",
-    "description": "這堂課是微學分課程，課程內容是MOOCs, 你將會觀看林日璇教授錄製的六小時影片。 從心理學、傳播學等取徑，了解數位遊戲作為傳播媒體的設計方式與對於閱聽人的效果。探討議題包含遊戲作為新聞 (新聞遊戲)、遊戲作為說服廣告、遊戲與閱聽人、以及遊戲中暴力內容對於閱聽人的影響等，同時也綜觀遊戲領域的研究趨勢與論述發展，對於數位遊戲有興趣的同學，可以透過六小時簡短的課程，一窺數位遊戲研究的全貌。 https://newdoc.nccu.edu.tw/teaschm/1111/schmPrv.jsp-yy=111&amp;smt=1&amp;num=402M01&amp;gop=00&amp;s=1.html",
-    "evaluation": "日璇超正, 給分超甜, 講話超可愛"</t>
-  </si>
-  <si>
-    <t>經濟思想史 經濟學家 李為楨</t>
-  </si>
-  <si>
-    <t>"title": "110-2 國立政治大學 李為楨 經濟思想史",
-    "description": "這門課主要是在教經濟的興起以及西方及亞洲不同時代的經濟狀況及當時有名的經濟學家及其他專家，從這門課比較是從歷史的角度去看經濟，跟一般的經濟學課程比起來比較輕鬆。",
-    "evaluation": "＃教室很大, ＃有趣, ＃好玩"</t>
-  </si>
-  <si>
-    <t>情緒管理 憂鬱症 人際互動 111</t>
-  </si>
-  <si>
-    <t>"title": "111-2 國立政治大學 陳柏妤 壓力與情緒管理",
-    "description": "這門課主要是三位不同的講師來授課，主要講解許多有關於人們身心調適與相關的知識，舉例而言有憂鬱症的成因、家庭的互動關係、人際互動等等議題，總之內容是以生理及心理的方廟對於壓力與情緒這方面做知識分享。",
-    "evaluation": "超想睡覺, 上課輕鬆, 考試簡單"</t>
-  </si>
-  <si>
-    <t>古典戲曲 侯雲舒 點名</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "title": "111-1 國立政治大學 侯雲舒 國文－古典戲曲選讀",
-    "description": "教師授課及實作賞析的方式進行。另外搭配授課期間台灣各戲曲劇團之現場演出，將同學帶入劇場中實際觀賞，並結合視聽資料的觀賞學習，加上書寫訓練，以期能使修課同學達到書面及展演結合對古典戲曲能的全面性了解之學習成效。",
-    "evaluation": "欣賞到很多戲曲作品, 老師很好, 隨機點名"</t>
-  </si>
-  <si>
-    <t>"title": "111-2 國立政治大學 潘俊宏 藥物使用與生活的關係",
-    "description": "藥物對日常生活中的影響可說無所不在，像是遇到疾病、疼痛等情形可能會自行購置藥物，或是就醫時會由醫院、診所開立藥物，都與健康的維持息息相關。另一方面，藥物濫用問題從青少年時期就從校園出現，更是持續地影響整個國家社會，是亟需關住的社會問題。 增進對於治療性藥物與非法、成癮藥物的整體認識，除了有利促進自身的健康品質，了解社會與藥物的複雜關係也有助於解決藥物濫用問題。 來源：https://newdoc.nccu.edu.tw/teaschm/1112/schmPrv.jsp-yy=111&amp;smt=2&amp;num=090044&amp;gop=00&amp;s=1.html",
-    "evaluation": "甜涼閒課, 放鬆的通識時刻, 想不到的臨床案例分享"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>111-2 國立政治大學 潘俊宏 藥物使用與生活的關係 課程大綱內容 難度 甜度 報告數量 點名 功課 考試 禁藥使用 藥物副作用 藥品年齡需求</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> "title": "111-2 國立政治大學 張韻琪 民法債編各論",
-    "description": "https://newdoc.nccu.edu.tw/teaschm/1112/schmPrv.jsp-yy=111&amp;smt=2&amp;num=601103&amp;gop=01&amp;s=1.html 1 債各總說、買賣法（一） 買賣契約之概念與成立 6hr 2 買賣法（二） 雙方當事人之義務、出賣人之瑕疵擔保責任（體系介紹、權利瑕疵擔保） 6hr 3 買賣法（三） 出賣人之瑕疵擔保責任（物之瑕疵擔保） 6hr 4 買賣法（四） 出賣人之瑕疵擔保責任（債務不履行之競合、侵權行為之競合） 6hr 5 買賣法（五） 買受人之義務 6hr 6 買賣法（六） 危險負擔 6hr 7 買賣法（七） 特種買賣、非典型買賣契約（繼續性買賣、所有權留保條款、融資型交易） 6hr 8 校際活動停課 9 期中考、贈與契約 6hr 10 租賃法（一） 租賃契約對出租人之效力、租賃契約對承租人之效力 6hr 11 租賃法（二） 租賃之社會化（地上權登記請求權、優先承買權） 6hr 12 租賃法（三） 租賃之社會化（買賣不破租賃、承租人之變更）、特種租賃 6hr 13 使用借貸、消費借貸、僱傭、委任、承攬（一） 承攬概說 6hr 14 承攬（二） 承攬契約對承攬人之效力（工作完成之義務、債務不履行） 6hr 15 承攬（三） 承攬契約對承攬人之效力（瑕疵擔保責任）、承攬契約對定做人之效力（危險負擔之分配）6hr 16 合夥、保證（一般保證）、和解 6hr 17 其他典型契約概論 6hr 18 期末考",
-    "evaluation": "新開的, 充實, 實務"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>111-2 國立政治大學 張韻琪 民法債編各論 課程大綱內容 難度 甜度 報告數量 點名 功課 考試 民法方面 債務追討 債務抵稅</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"title": "110-1 國立政治大學 陳威光 衍生性商品",
-    "description": "1讓學生瞭解選擇權、遠期、期貨及交換的基本概念、評價、避險及其應用。 2讓學生熟悉選擇權評價軟體之應用，及利用Excel來評價選擇權 。 3讓學生熟悉台灣台指選擇權及台指期貨市場交易實務及策略。 4讓學生熟悉國內外金融情勢及對台股的影響。 5讓學生了解市場上金融創新商品個案。",
-    "evaluation": "陳威光, 衍生性商品, 選擇權"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>110-1 國立政治大學 陳威光 衍生性商品 課程大綱內容 難度 甜度 報告數量 點名 功課 考試 商品種類 商品關聯性 商品分支價值</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> "title": "110-1 國立政治大學 楊光華 瞭解國際經濟法",
-    "description": "以正確解讀相關國際經貿事件與議題、關切國家經貿政策。了解WTO的組織與功能、不歧視原則、關稅減讓及透明化、貿易救濟制度，包括反傾銷、平衡稅等，以及WTO所允許的貿易自由化之例外，包括防衛機制等。",
-    "evaluation": "國貿系必修的通識版, 小考很多, 要讀很多英文"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>110-1 國立政治大學 楊光華 瞭解國際經濟法 課程大綱內容 難度 甜度 報告數量 點名 功課 考試 法律背誦 英文學習 經濟政策</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"title": "111-2 國立政治大學 李桐豪 投資決策與資產管理",
-    "description": "為工商管理碩士和本科高年級學生提供建立投資組合的基本知識，管理其風險和引入資產管理行業。 涵蓋的主題 2023年投資巨集觀觀點 資產管理行業 臺灣的市場慣例 技術交易實踐 基本分析實踐 投資組合的構建 投資組合的回報和風險 資本資產定價理論 行為金融理論及其對投資的影響 衍生品在管理投資組合風險中的應用 靜態和動態投資組合保險的引入 投資組合的績效衡量 https://newdoc.nccu.edu.tw/teaschm/1112/schmPrv.jsp-yy=111&amp;smt=2&amp;num=302774&amp;gop=00&amp;s=1.html",
-    "evaluation": "好, 認真, 冷氣涼"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>111-2 國立政治大學 李桐豪 投資決策與資產管理 課程大綱內容 難度 甜度 報告數量 點名 功課 考試 投資方法 投資理論 資產分配 置產方式</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> "title": "111-2 國立政治大學 李佳怡 質性與量化研究方法導論",
-    "description": "這是老師第一次開課，期中考前會介紹量化部分，考量到大家都是第一次接觸，所以老師開放期中考開書考（其實只要讀熟老師的簡報就夠了），課程的第三小時會是實作課，由老師親自上課，會帶我們操作R軟體，非常實用，有問題老師跟助教都非常願意協助，期中考後就介紹質性的研究方法，沒有期末考，但要用所學完成一份約一萬字的期末報告。推爛佳怡，真的是非常好的老師",
-    "evaluation": "佳怡超讚, 研究方法入門必修課, 選就對了"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">111-2 國立政治大學 李佳怡 質性與量化研究方法導論 課程大綱內容 難度 甜度 報告數量 點名 功課 考試  研究方法種類 研究分析基礎 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"title": "111-2 國立政治大學 徐士勛 計量經濟學（一）",
-    "description": "以統計跟經濟學為基礎，下去計算個別原因對結果的影響，同時也會用到Ｒ不難也不簡單但最好都要去上課做筆記，因為老師寫板書，差了一堂課就會有點難跟上，統計學用到蠻多的所以建議大三或大四再去修。",
-    "evaluation": "＃早上9點, ＃老師有趣, ＃有挑戰性"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">111-2 國立政治大學 徐士勛 計量經濟學（一）課程大綱內容 難度 甜度 報告數量 點名 功課 考試 經濟學差異 計量意思 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"title": "111-1 國立政治大學 方中柔 金融，理財與生活",
-    "description": "課程授課重點在介紹金融制度與個人投資理財的基本概念，並分別從理論及制度上，探討及評估政府的各項金融制度對我們個人投資理財的影響。目的在使學習者能透過經濟學的思考方式，認識政府所扮演的財金角色，並對個人投資理財的影響有所了解。此外，對現階段各國個人投資理財所面臨的重要問題，亦將酌量提出討論。 http://newdoc.nccu.edu.tw/teaschm/1111/schmPrv.jsp-yy=111&amp;smt=1&amp;num=042002&amp;gop=00&amp;s=1.html",
-    "evaluation": "超涼, 背多分, 期中期末前會背到發瘋"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>111-1 國立政治大學 方中柔 金融，理財與生活 課程大綱內容 難度 甜度 報告數量 點名 功課 考試 生活投資 理財投資類型 金融模式</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"title": "111-1 國立政治大學 黃奎博 國際移動與全球趨勢專題（一）",
-    "description": "本課程共計兩學分，為外交學系選修課，經費主要來自同年度畢業卅年的外交系系友。為使本系大學部學生在畢業後能夠具備國際溝通交流之能力，以及適當的國際觀，將邀請國內外「非外交領域」的實務界專家，針對本學期所安排的四個不同主題群組發表專題演講。在主題群組間，或將安排小組討論與交流，藉以協助選課學生回顧與探索所聽取的實務經驗與見解，並藉由小組時間整理心得，以符合學術訓練之要求呈現之。https://newdoc.nccu.edu.tw/teaschm/1111/schmPrv.jsp-yy=111&amp;smt=1&amp;num=203810&amp;gop=00&amp;s=1.html",
-    "evaluation": "涼, 聽演講寫心得, 小心雷組員"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">111-1 國立政治大學 黃奎博 國際移動與全球趨勢專題（一）課程大綱內容 難度 甜度 報告數量 點名 功課 考試 移動工具 新聞分析 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> "title": "111-1 國立政治大學 郭正佩 探索數位世界",
-    "description": "介紹對資訊科學領域發展有重大貢獻的學者、電腦的主要組成元件與相關的週邊設備及相關最新發展現況、回顧電腦在過去近七十年的發展歷史以及探討未來趨勢、介紹類比與數位訊號的基礎概念、數位系統的優勢以及在類比與數位系統間轉換的原理、介紹搜索引擎相關技術，以及對於資訊傳播所帶來的衝擊與影響、認識大數據的潮流，簡介資料科學的基礎分析概念及方法 來源：https://newdoc.nccu.edu.tw/teaschm/1112/schmPrv.jsp-yy=111&amp;smt=2&amp;num=043028&amp;gop=01&amp;s=1.html",
-    "evaluation": "上課輕鬆, 甜課, 口頭報告"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>111-1 國立政治大學 郭正佩 探索數位世界 課程大綱內容 難度 甜度 報告數量 點名 功課 考試 圖靈獎 大數據 數位歷史</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"title": "110-1 國立政治大學 朱立熙 韓國轉型正義電影評析",
-    "description": "以啟發歷史意識、清算過去、社會正義、創意十足、顛覆傳統等2000年以後發行的轉型正義電影為主，排序依事件發生的先後。 1980年代之後，韓國發生的轉型正義事件造成政權更替，最具代表性的案例，一為1980年的「光州抗爭」；二為1987年的「六月抗爭」，成為民主化的起源；三為2014年發生的「世越號船難」慘劇，造成朴槿惠總統2017年因「燭光革命」遭罷黜，並收押受審，政權因而輪替；四為2008~2017保守政權掌權的九年之間，政媒掛勾以及執政當局對媒體的惡質操控，導致媒體的自我反省與改革。因此，這學期的「轉型正義電影評析」以這三大事件為主軸，讓同學從影片中探討轉型正義對深化與鞏固民主的重要性。 來源：政大全校課程查詢系統。",
-    "evaluation": "人很多, 都會看電影, 電影有些內容很沉重"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>110-1 國立政治大學 朱立熙 韓國轉型正義電影評析 課程大綱內容 難度 甜度 報告數量 點名 功課 考試 電影在課堂看在家看 評析內容多寡 韓國介紹新舊</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"title": "112-1 國立政治大學 陳國樑 租稅法（一）",
-    "description": "《租稅法》為財政系大學部四年級唯一各組必修之課程，是許多國家考試之指定科目，其重要性可見。就財政系核心課程之架構而言，經過了一年級經濟原理及初級會計的紮根、二年級經濟學理論的進一步探討與財政學理論的導讀以及三年級租稅各稅的討論，在四年級的《租稅法》課程的要求，應結合前三年級所學，細膩的剖析我國稅制。 來源網址：https://newdoc.nccu.edu.tw/teaschm/1121/schmPrv.jsp-yy=112&amp;smt=1&amp;num=205062&amp;gop=00&amp;s=1.html",
-    "evaluation": "老師很有教學熱忱, 租稅法, 助教認真"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>112-1 國立政治大學 陳國樑 租稅法（一）課程大綱內容 難度 甜度 報告數量 點名 功課 考試 背誦多少 應用方面 學習深度</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"title": "110-1 國立政治大學 鍾宜杰 靜態影像設計",
-    "description": "在這樣的時代背景之下，本課程，作為傳播學院最基礎的一門工具課，目標是讓同學（1）認識攝影的科學與藝術，（2）了解影像的傳播與社會意義，（3）認識專業攝影的製作原理與方式。",
-    "evaluation": "豐富, 創意, 要認真聽"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>110-1 國立政治大學 鍾宜杰 靜態影像設計 課程大綱內容 難度 甜度 報告數量 點名 功課 考試 設計軟體 相機需求 作品內容</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"title": "111-2 國立政治大學 李懿芳 影視寫作",
-    "description": "從影視編劇的角度切入，認識戲劇結構、挖掘內在創造力，體驗理性與感性出發的兩種創作過程。認識業界必備的多種敘事結構，具有分析影視作品的能力。並能夠將理論用於規劃符合大眾市場的影集。學會從內心提取資源，轉換成個人創作，並且從故事中找到解決生活困境的方案。課程將運用榮格心理學輔助敘事理論；找到適合的寫作方式。",
-    "evaluation": "影視寫作, 編劇入門, 故事發想"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">111-2 國立政治大學 李懿芳 影視寫作 課程大綱內容 難度 甜度 報告數量 點名 功課 考試 拍影片 寫作文 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"title": "111-2 國立政治大學 張彥成 管理學",
-    "description": "課程內容將包含決策制定、組織設計、組織變革、創新管理、策略管理、團隊建立、領導模式、激勵運用等單元，廣泛且全面的進行與管理相關議題的探討與實境演練，藉由多元化學習、互動式教學方式深化學習成效。",
-    "evaluation": "有趣, 老師人很好, 人氣爆棚"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>111-2 國立政治大學 張彥成 管理學 課程大綱內容 難度 甜度 報告數量 點名 功課 考試  學習能力 目標內容</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>"title": "110-2 國立政治大學 林文乙 體育[男女合班]—橄欖球初級",
@@ -429,153 +159,138 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>110-2 國立政治大學 林文乙 體育[男女合班]—橄欖球初級 橄欖球會曬太陽嗎，會容易受傷嗎，如果身體瘦弱可選嗎?</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>"title": "111-2 國立政治大學 陳立夫 土地行政",
     "description": "本課程之內容如下： 1. 土地行政之意涵 2. 土地行政、土地政策及土地立法之關係 3. 行政法之一般法律原則 4.行政行為概述－－行政立法、行政處分、行政契約、行政計畫、行政罰等 5.土地行政與行政程序法（行政程序法概述） 6.行政機關之概念、土地行政機關（地政機關）之組織及職掌 7.土地行政人員（公務人員）之概念、公務人員之權利義務及其法律責任（民事、刑事及行政責任） 8.土地行政事務與行政救濟（訴願、行政訴訟、都市計畫審查程序‧國家賠償/土地登記損害賠償‧損失補償） 9.土地行政之現時課題（各論）－－例如：土地登記行政、土地稅行政、國土利用管制、土地徵收、建築管理、既成道路等（本ˋ部分內容將交織融入各週之具體議題中說明）。",
     "evaluation": "超累, 超早起, 老師話很多"</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>111-2 國立政治大學 陳立夫 土地行政 課程大綱會長怎麼樣，學習的深度又是如何，會有很多實地勘察類的報告呢?</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> "title": "109-2 國立政治大學 詹凌菁 高級會計學（二）",
     "description": "本課程旨在培養對會計概念的認識和理解， 這些都超出了會計中級。 在課程結束時，學生應該能夠： (1）編製並分析合併財務報表 (2) 編製總公司及分公司的財務報表 (3) 在不同情況下選擇適當的會計政策時運用概念原則 (4) 編製日記帳分錄，記錄包括避險在內的外幣交易 (5）以適當的方法折算境外子公司的財務報表 (6）識別、計量和分析金融工具對財務報表的影響。",
     "evaluation": "很累, 好老師, 很想睡"</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>109-2 國立政治大學 詹凌菁 高級會計學（二）修這個課之前需要先修一般會計學嗎，功課會特別難或多嗎，考試和點名的情況呢?</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>"title": "109-1 國立政治大學 趙知章 生活中的生命科學",
     "description": "核心通識，主要會針對日常生活中與生命科學有關的議題做介紹，正課的部分會有點深奧，如果沒有專心聽課應該會聽不懂。包含四大單元：一、生命的毫米世界 二、生命成長和生物科技時代 三、智能的發展 四、生命的人文關懷。",
     "evaluation": "老師和善, 助教課討論議題有趣, 正課有點深奧"</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>109-1 國立政治大學 趙知章 生活中的生命科學 通識的話有助教克嗎，有的話會點名嗎，考試會特別難嗎，會需要用到普生嗎?</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> "title": "110-2 國立政治大學 黃柏鈞 個體經濟學",
     "description": "This is a one-year course in intermediate microeconomics. We will cover fundamentals in microeconomics and have a substantial focus on real-world problems. In the first semester, we will focus on three topics: 1. Consumer Demand 2. Consumer Welfare and Policy Applications 3. Production and Costs.",
     "evaluation": "老師很讚, 助教很讚, 涼課"</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>110-2 國立政治大學 黃柏鈞 個體經濟學 個體經濟學和一般經濟學的差異，還有我能在一般經濟學能學到甚麼東西? 會很難嗎?</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>"title": "111-1 國立政治大學 林信助 經濟學",
     "description": "這是為期一年的經濟學入門課程的第一部分。本學期，我們將重點關注微觀經濟部分，研究家庭和企業如何在市場中做出決策和互動，以及市場失靈時政府可能扮演的角色。主要議題包括：需求與供給、消費者選擇理論、企業理論、公共物品和外部性。",
     "evaluation": "偶爾提早下課, 早9, 內容適中"</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>111-1 國立政治大學 林信助 經濟學 老師點名嗎?功課多嗎，老師上課會雖機抽人回答問題嗎，還是會有拍影片阿報告等等的東西嗎?</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>"title": "110-2 國立政治大學 陳雅莉 大學英文（二）",
     "description": "College English I/II is a two-semester course, designed to help students improve their English language proficiency and develop the ability to engage critically with the world. While it is a four-skills (listening, speaking, reading, writing) integrated course, a particular emphasis will be placed on speaking and writing skills freshman students tend to lack most. All College English I/II courses are conducted in English. https://newdoc.nccu.edu.tw/teaschm/1102/schmPrv.jsp-yy=110&amp;smt=2&amp;num=032002&amp;gop=51&amp;s=1.html",
     "evaluation": "口音很道地, 涼, 甜"</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>110-2 國立政治大學 陳雅莉 大學英文（二）英文課上老是會請人回答問題嗎，有需要做甚麼報告或是寫一些長篇的文章嗎?</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> "title": "111-1 國立政治大學 甯方璽 測量學及實習",
     "description": "本課程主要教授土地測量之基本知識、誤差理論、距離測量、水準測量、方向與角度測量、三角高程測量、視距視角測量、導線測量及各種交會法。 來源:https://qrysub.nccu.edu.tw/",
     "evaluation": "很想睡覺, 很難, 實習很好玩"</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>111-1 國立政治大學 甯方璽 測量學及實習 ，老師上課會很豐富嗎，還是PPT潦草帶過呢，有沒有考試分數甜嗎?</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> "title": "111-2 國立政治大學 朱斌妤 溝通與協商",
     "description": "很有趣的一堂課，課程中有多次的角色扮演、小遊戲(如賽局理論的小遊戲)及分組談判機會，平時上課老師也會以ppt介紹各種談判相關的專有名詞及理論，並搭配不同的故事和案例讓我們熟悉。",
     "evaluation": "硬, 好玩, 老師專業"</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>111-2 國立政治大學 朱斌妤 溝通與協商 ，這堂課程會跟老師有很多互動嗎，還是就是學習相關知識，最重要的是分數甜嗎?</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>"title": "110-2 國立政治大學 林宛瑩 財務報表分析",
     "description": "這堂課將主要介紹企業的財務報表分析方式及企業的估值方法。並同時會說明企業在財務報表上可能會操作的手法，藉由部分例子讓修課學生了解其中應發現之因子及財務報表分析之重點。",
     "evaluation": "報告, 內容多, 分組"</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>110-2 國立政治大學 林宛瑩 財務報表分析 老師嚴格嗎，會每堂課點名嗎，功課多嗎，學習難易度高還是低呢?</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>"title": "111-1 國立政治大學 吳豐祥 科技與創新管理",
     "description": "課程介紹： 科技與創新在現代企業中扮演著重要的角色，本課程旨在提供學生對科技與創新管理的基本概念、策略和實踐的理解。學生將學習如何在不斷變化的科技環境中創造和應用創新，並探索有效管理科技和創新。",
     "evaluation": "個案研究, 創新思考, 經典事件研析"</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>111-1 國立政治大學 吳豐祥 科技與創新管理 名字聽起來超攏統，教的內容有沒有貼合實際層面阿，還是這堂課可以爽爽過，分數又簡單拿?</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>"title": "110-1 國立政治大學 張仲豪 體育[男女合班]—武術初級",
     "description": "課程目標： 1.學習心意六合拳墊步四把捶 2.透過輔助的肌力、柔軟度訓練、基本姿勢修正，提升身體素質，增進身體適能 3.經由技術講解、拳論分析、勁力感受，了解武術的意義 4.講述武術相關歷史與分享個人學習經驗，提升人文素養 學習成效： 1.能完成課堂教學動作 2.提升肌力、柔軟度、修正生活基本姿勢 3.透過動作學習與講解，了解一門武術的用意與基本練習方式 4.透過實作與教師分享，感受武術的文化內涵 來源：政大全校課程查詢系統。",
     "evaluation": "單獨修課OK, 同學互動不多, 沒有考試"</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>國立政治大學 張仲豪 體育[男女合班]—武術初級 會像其他體育課一樣很累嗎，如果沒基礎推嗎，能不能輕鬆過?</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>"title": "112-1 國立政治大學 吳漢銘 統計學（一）",
     "description": "統計學，樣本、分佈、樣本統計量、統計推論、信賴區間，基礎的統計學，應該跟大多數的統計學一樣，老師人很好，有中英文影片可以線上看，下午3:00會點名，可以補點名，盡量要到！",
     "evaluation": "會點名, 有影片, 可自學"</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>國立政治大學 吳漢銘 統計學（一）這堂課的學習內容是甚麼 是數統還是商統，考試上會刁難嗎，分數甜嗎，會撈嗎?</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>"title": "112-1 國立政治大學 林巧敏 圖書館管理",
 "description": "建立學生對於圖書館管理內涵的瞭解，並藉由主題報告與討論，深化學生對於各項議題的反思與解決問題能力，同時導入實地參訪與專家學者之專題演講，有助學生對於學理與實務之間的映證學習。",
  "evaluation": "老師超好, 作業壓力小, 舒服自在"</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>國立政治大學 林巧敏 圖書館管理 是有關怎麼樣的課程內容，課程上的難易度是怎麼樣的，分數給的高嗎</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>"title": "111-1 國立政治大學 林怡伶 程式設計一","description": "每堂課都有一個lab作業，老師會從頭開始教，沒基礎的不用擔心，會考小考和期中考，期末會分組做一個團體專案，需要上台DEMO，要求不會太高，分數普遍都給蠻高的，。", "evaluation": "輕鬆, 分數高, 老師人好"</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>想知道政治大學 林怡伶 程式設計一的課程怎麼樣 涼嗎 甜嗎 難易度麼樣，求解?</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>政治大學林怡伶老師的程式設計一課程怎麼樣？這課會不會很涼，還是會很甜？難易度如何呢？</t>
+  </si>
+  <si>
+    <t>政治大學林巧敏老師教的圖書館管理課程內容是什麼？這課難嗎？分數好拿嗎？</t>
+  </si>
+  <si>
+    <t>政治大學吳漢銘老師的統計學（一）課程教的是數統還是商統？考試會不會很刁難，分數甜嗎？</t>
+  </si>
+  <si>
+    <t>政治大學張仲豪老師的體育課（武術初級）會不會像其他體育課一樣很累？如果沒基礎，這課推不推薦？能輕鬆過嗎？</t>
+  </si>
+  <si>
+    <t>111-1 政治大學吳豐祥老師的科技與創新管理課內容實際嗎？這課可以輕鬆過嗎？分數好拿嗎？</t>
+  </si>
+  <si>
+    <t>110-2 政治大學林宛瑩老師的財務報表分析課老師嚴格嗎？會每堂課點名嗎？功課多不多，學習難度高嗎？</t>
+  </si>
+  <si>
+    <t>111-2 政治大學朱斌妤老師的溝通與協商課程，會跟老師有很多互動嗎？還是主要是學習相關知識？分數甜嗎？</t>
+  </si>
+  <si>
+    <t>111-1 政治大學甯方璽老師的測量學及實習課，老師上課內容豐富嗎？還是只是用PPT帶過？考試分數好拿嗎？</t>
+  </si>
+  <si>
+    <t>110-2 政治大學陳雅莉老師的大學英文（二）課，老師會常常請人回答問題嗎？有需要做報告或寫長篇文章嗎？</t>
+  </si>
+  <si>
+    <t>111-1 政治大學林信助老師的經濟學課，老師會點名嗎？功課多不多？上課會隨機抽人回答問題嗎？會有拍影片或報告嗎？</t>
+  </si>
+  <si>
+    <t>110-2 政治大學黃柏鈞老師的個體經濟學，這課和一般經濟學有什麼差異？學起來會很難嗎？</t>
+  </si>
+  <si>
+    <t>109-1 政治大學趙知章老師的生活中的生命科學，這通識課有助教嗎？會點名嗎？考試難不難？需要用到普通生物的知識嗎？</t>
+  </si>
+  <si>
+    <t>109-2 政治大學詹凌菁老師的高級會計學（二），修這課之前需要先修一般會計學嗎？功課多嗎？考試和點名情況如何？</t>
+  </si>
+  <si>
+    <t>111-2 政治大學陳立夫老師的土地行政課，課程內容是什麼？學習的深度如何？會有很多實地勘察類的報告嗎？</t>
+  </si>
+  <si>
+    <t>110-2 政治大學林文乙老師的橄欖球初級體育課，會不會曬太陽？容易受傷嗎？如果身體瘦弱，適合選這課嗎？</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -617,6 +332,13 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -653,7 +375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -665,6 +387,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -882,19 +605,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" customWidth="1"/>
-    <col min="3" max="3" width="36.140625" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" customWidth="1"/>
-    <col min="5" max="5" width="40.85546875" customWidth="1"/>
-    <col min="6" max="6" width="46.42578125" customWidth="1"/>
-    <col min="7" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.26953125" customWidth="1"/>
+    <col min="2" max="2" width="29.1796875" customWidth="1"/>
+    <col min="3" max="3" width="36.1796875" customWidth="1"/>
+    <col min="4" max="4" width="32.81640625" customWidth="1"/>
+    <col min="5" max="5" width="40.81640625" customWidth="1"/>
+    <col min="6" max="6" width="46.453125" customWidth="1"/>
+    <col min="7" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1">
@@ -1026,368 +749,161 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A18" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A21" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A24" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A25" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A26" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A27" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A28" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A29" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A30" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A31" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A23" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A24" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A25" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A26" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A27" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A28" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A29" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A30" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A31" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A32" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A33" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A34" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A35" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A36" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A37" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A38" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A39" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A40" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A41" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A42" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A43" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A44" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A45" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A46" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="33" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="34" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="35" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="36" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="37" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="38" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="39" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="40" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="41" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="42" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="43" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="44" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="45" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="46" spans="1:2" ht="15.75" customHeight="1"/>
     <row r="47" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A47" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A48" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A49" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A50" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A51" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A52" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A53" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A54" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A55" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A56" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A57" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A58" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A59" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A60" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A61" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="63" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="64" spans="1:2" ht="15.75" customHeight="1"/>
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+    </row>
+    <row r="48" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
     <row r="65" ht="15.75" customHeight="1"/>
     <row r="66" ht="15.75" customHeight="1"/>
     <row r="67" ht="15.75" customHeight="1"/>

--- a/data/第二次試驗/【測試資料】_60題.xlsx
+++ b/data/第二次試驗/【測試資料】_60題.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\桌面\RAG_Search_Weights\data\第二次試驗\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712F08CD-C7DF-41A7-B18F-A3388B95CBB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB9F7F7-3754-4C75-95C6-9030F926606C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>問題</t>
   </si>
@@ -284,6 +284,100 @@
   </si>
   <si>
     <t>110-2 政治大學林文乙老師的橄欖球初級體育課，會不會曬太陽？容易受傷嗎？如果身體瘦弱，適合選這課嗎？</t>
+  </si>
+  <si>
+    <t>109學年 吳文傑老師 全英授課 經濟學課程</t>
+  </si>
+  <si>
+    <t>這學期 早八 社會學</t>
+  </si>
+  <si>
+    <t>111學年第二學期 吳岳剛老師 靜態影像設計 基礎攝影技巧</t>
+  </si>
+  <si>
+    <t>幽默 實用 生活化 民法概要</t>
+  </si>
+  <si>
+    <t>穆斯林 種族議題 課</t>
+  </si>
+  <si>
+    <t>企業模式 實務課程</t>
+  </si>
+  <si>
+    <t>輕鬆學 印尼文 課</t>
+  </si>
+  <si>
+    <t>金融市場 銀行 運作模式 一學年 貨幣銀行學</t>
+  </si>
+  <si>
+    <t>晚九 口頭報告 營養學分</t>
+  </si>
+  <si>
+    <t>台灣大車隊 副董事長 管理學 課程</t>
+  </si>
+  <si>
+    <t>政大 課程 數位學術期刊</t>
+  </si>
+  <si>
+    <t>民意調查 課</t>
+  </si>
+  <si>
+    <t>政大 民族系 民族文學 課</t>
+  </si>
+  <si>
+    <t>資管系 系學會 服務學習 課程</t>
+  </si>
+  <si>
+    <t>人口遷移測量 課</t>
+  </si>
+  <si>
+    <t>政大 林怡伶 程式設計一 課程 難度</t>
+  </si>
+  <si>
+    <t>政大 林巧敏 圖書館管理 課程 內容 難度</t>
+  </si>
+  <si>
+    <t>政大 吳漢銘 統計學（一） 課程 難度</t>
+  </si>
+  <si>
+    <t>政大 張仲豪 體育課 武術初級 基礎 推薦</t>
+  </si>
+  <si>
+    <t>111-1 政大 吳豐祥 科技與創新管理 課 內容 難度</t>
+  </si>
+  <si>
+    <t>110-2 政大 林宛瑩 財務報表分析 課 老師 嚴格 點名</t>
+  </si>
+  <si>
+    <t>111-2 政大 朱斌妤 溝通與協商 課程 互動 知識 分數</t>
+  </si>
+  <si>
+    <t>111-1 政大 甯方璽 測量學及實習 課 內容 考試 分數</t>
+  </si>
+  <si>
+    <t>110-2 政大 陳雅莉 大學英文（二） 課 答問題 報告 長篇文章</t>
+  </si>
+  <si>
+    <t>111-1 政大 林信助 經濟學 課 點名 功課 問題 拍影片 報告</t>
+  </si>
+  <si>
+    <t>110-2 政大 黃柏鈞 個體經濟學 課 一般經濟學 差異 難度</t>
+  </si>
+  <si>
+    <t>109-1 政大 趙知章 生活中的生命科學 通識課 助教 點名 考試 普通生物 知識</t>
+  </si>
+  <si>
+    <t>109-2 政大 詹凌菁 高級會計學（二） 課 一般會計學 功課 考試 點名</t>
+  </si>
+  <si>
+    <t>111-2 政大 陳立夫 土地行政 課程 內容 深度 實地勘察 報告</t>
+  </si>
+  <si>
+    <t>110-2 政大 林文乙 橄欖球初級體育課 曬太陽 容易受傷 瘦弱 适合</t>
+  </si>
+  <si>
+    <t>關鍵字</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -603,10 +697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1000"/>
+  <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -620,255 +714,348 @@
     <col min="7" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C1" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C2" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C3" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C4" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C5" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C6" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C7" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C8" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C9" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C10" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C11" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C12" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C13" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C14" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C15" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C16" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1">
       <c r="A17" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C17" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1">
       <c r="A18" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C18" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1">
       <c r="A19" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C19" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1">
       <c r="A20" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C20" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C21" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1">
       <c r="A22" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C22" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C23" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1">
       <c r="A24" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C24" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1">
       <c r="A25" s="5" t="s">
         <v>55</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C25" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1">
       <c r="A26" s="5" t="s">
         <v>56</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C26" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1">
       <c r="A27" s="5" t="s">
         <v>57</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C27" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1">
       <c r="A28" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C28" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1">
       <c r="A29" s="5" t="s">
         <v>59</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C29" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1">
       <c r="A30" s="5" t="s">
         <v>60</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C30" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1">
       <c r="A31" s="5" t="s">
         <v>61</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="15.75" customHeight="1"/>
+      <c r="C31" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="33" spans="1:2" ht="15.75" customHeight="1"/>
     <row r="34" spans="1:2" ht="15.75" customHeight="1"/>
     <row r="35" spans="1:2" ht="15.75" customHeight="1"/>
@@ -1843,6 +2030,6 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>